--- a/classfiers/nano/svm/nano-svm-sigmoid-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9481220657276995</v>
+        <v>0.9371786273194724</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.992018779342723</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97018779342723</v>
+        <v>0.9206572769953053</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8344452680998271</v>
+        <v>0.8300469483568075</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.6744301994301994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.4342857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.488312313468759</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9489547813194961</v>
+        <v>0.918528951486698</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nano-svm-sigmoid-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9371786273194724</v>
+        <v>0.9381443298969072</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9083016820401519</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9206572769953053</v>
+        <v>0.9324169530355098</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.72</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.979001908917371</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8300469483568075</v>
+        <v>0.7841559858194709</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6744301994301994</v>
+        <v>0.6773333333333335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4342857142857143</v>
+        <v>0.3923976608187134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.488312313468759</v>
+        <v>0.4555411255411255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.918528951486698</v>
+        <v>0.9084041719418821</v>
       </c>
     </row>
   </sheetData>
